--- a/medicine/Enfance/Rachel_Hausfater/Rachel_Hausfater.xlsx
+++ b/medicine/Enfance/Rachel_Hausfater/Rachel_Hausfater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rachel Hausfater, née le 3 décembre 1955 à Paris, est une auteure française pour la jeunesse.
 Elle a publié plus d'une quarantaine d'ouvrages, surtout des romans pour enfants, adolescents et jeunes adultes, mais aussi des albums.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a écrit plusieurs romans avec Yaël Hassan : De Sacha à Macha, Roman portable, L'Ombre et Perdus de vue.
 </t>
@@ -543,17 +557,19 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Enfantaisie[1] 2000 (Suisse) pour La danse interdite
-Prix Livrentête[2] Roman Enfant 2004 pour Gigi en Égypte
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Enfantaisie 2000 (Suisse) pour La danse interdite
+Prix Livrentête Roman Enfant 2004 pour Gigi en Égypte
 Prix Culture et Bibliothèques pour Tous 2004[réf. nécessaire] pour Gigi en Egypte
 Prix Goya découverte 2003[réf. nécessaire] pour Gigi en Egypte
-Prix des Incorruptibles[3] 2016 pour Yankov
-Prix Goya découverte 2017[4] pour Perdus de vue
-Prix Gayant Lecture[5] 2017 pour Perdus de vue coécrit avec Yaël Hassan
-Prix Tatoulu[6] 2017 pour Perdus de vue coécrit avec Yaël Hassan
-Prix Chronos[7] 2017 pour L'Été des pas perdus</t>
+Prix des Incorruptibles 2016 pour Yankov
+Prix Goya découverte 2017 pour Perdus de vue
+Prix Gayant Lecture 2017 pour Perdus de vue coécrit avec Yaël Hassan
+Prix Tatoulu 2017 pour Perdus de vue coécrit avec Yaël Hassan
+Prix Chronos 2017 pour L'Été des pas perdus</t>
         </is>
       </c>
     </row>
@@ -581,7 +597,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le chemin de fumée, Seuil Jeunesse - 1998, et rééd. éditions du mercredi 2019
 La Danse interdite, Thierry Magnier - 2000
@@ -596,7 +614,7 @@
 Moche, Flammarion - 2004, réédité sous le titre Miralaide, Mirabelle, Flammarion - 2009
 Dans la rue du bonheur, perdue, La Martinière jeunesse - 2005
 L'Ombre, coécrit avec Yaël Hassan, Bayard jeunesse, 2005 ; rééd. Nathan poche, 2010
-Pourquoi ça fait mal ?, éditions Thierry Magnier - 2005[8]
+Pourquoi ça fait mal ?, éditions Thierry Magnier - 2005
 La lumière de Bouchka, illustrations de Rémi Wyat, Sarbacane
 Quand elle sera reine, Thierry Magnier - 2008
 En vrai, Thierry Magnier, 2008
